--- a/Excel-XLSX/UN-GLP.xlsx
+++ b/Excel-XLSX/UN-GLP.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>FmpM31</t>
+    <t>62cbvD</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-GLP.xlsx
+++ b/Excel-XLSX/UN-GLP.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>62cbvD</t>
+    <t>8P9SiD</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-GLP.xlsx
+++ b/Excel-XLSX/UN-GLP.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8P9SiD</t>
+    <t>0Qo05U</t>
   </si>
   <si>
     <t>0</t>
